--- a/202107_EXP2/ATPase/ATPase.xlsx
+++ b/202107_EXP2/ATPase/ATPase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-gigas-ploidy-temp\202107_EXP2\ATPase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17229D30-DB31-4B59-91CE-CAC55B8BD754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82054823-BE0E-49A3-A778-11B4B052EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18103" activeTab="5" xr2:uid="{51591A21-EB65-5B4F-A10E-A3E381C6E5E1}"/>
+    <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18103" activeTab="2" xr2:uid="{51591A21-EB65-5B4F-A10E-A3E381C6E5E1}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="392">
   <si>
     <t>ID</t>
   </si>
@@ -1217,6 +1217,9 @@
   </si>
   <si>
     <t xml:space="preserve">Residuals        47.588 144  </t>
+  </si>
+  <si>
+    <t>des</t>
   </si>
 </sst>
 </file>
@@ -3414,8 +3417,8 @@
   <dimension ref="A1:I283"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57:G66"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -18924,9 +18927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F7B538-06F4-4D46-8A3D-F1A1159FD7C6}">
   <dimension ref="A1:I209"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D88" sqref="D88:D97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K206" sqref="K206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -18962,6 +18965,9 @@
       <c r="G1" s="8" t="s">
         <v>210</v>
       </c>
+      <c r="H1" s="8" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
@@ -18985,6 +18991,9 @@
       <c r="G2" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H2" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
@@ -19009,6 +19018,9 @@
       <c r="G3" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
@@ -19033,6 +19045,9 @@
       <c r="G4" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -19057,6 +19072,9 @@
       <c r="G5" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H5" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -19081,6 +19099,9 @@
       <c r="G6" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -19105,6 +19126,9 @@
       <c r="G7" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H7" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -19129,6 +19153,9 @@
       <c r="G8" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H8" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -19153,6 +19180,9 @@
       <c r="G9" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H9" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
@@ -19177,6 +19207,9 @@
       <c r="G10" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H10" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
@@ -19201,6 +19234,9 @@
       <c r="G11" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H11" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
@@ -19225,6 +19261,9 @@
       <c r="G12" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H12" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
@@ -19249,6 +19288,9 @@
       <c r="G13" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H13" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
@@ -19273,6 +19315,9 @@
       <c r="G14" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H14" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
@@ -19297,6 +19342,9 @@
       <c r="G15" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H15" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
@@ -19321,6 +19369,9 @@
       <c r="G16" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H16" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I16" s="5"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -19345,6 +19396,9 @@
       <c r="G17" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H17" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
@@ -19369,6 +19423,9 @@
       <c r="G18" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H18" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
@@ -19393,6 +19450,9 @@
       <c r="G19" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H19" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
@@ -19417,6 +19477,9 @@
       <c r="G20" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H20" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
@@ -19441,6 +19504,9 @@
       <c r="G21" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H21" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
@@ -19465,6 +19531,9 @@
       <c r="G22" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H22" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
@@ -19489,6 +19558,9 @@
       <c r="G23" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H23" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
@@ -19513,6 +19585,9 @@
       <c r="G24" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H24" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="7" t="s">
@@ -19536,6 +19611,9 @@
       <c r="G25" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H25" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
@@ -19559,6 +19637,9 @@
       <c r="G26" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H26" s="7" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="7" t="s">
@@ -19582,6 +19663,9 @@
       <c r="G27" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H27" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="7" t="s">
@@ -19605,6 +19689,9 @@
       <c r="G28" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H28" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="7" t="s">
@@ -19628,6 +19715,9 @@
       <c r="G29" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H29" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="7" t="s">
@@ -19651,6 +19741,9 @@
       <c r="G30" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H30" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="7" t="s">
@@ -19674,6 +19767,9 @@
       <c r="G31" s="7" t="s">
         <v>213</v>
       </c>
+      <c r="H31" s="7" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="7" t="s">
@@ -19697,8 +19793,11 @@
       <c r="G32" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H32" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="7" t="s">
         <v>62</v>
       </c>
@@ -19720,8 +19819,11 @@
       <c r="G33" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H33" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>63</v>
       </c>
@@ -19743,8 +19845,11 @@
       <c r="G34" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H34" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="7" t="s">
         <v>66</v>
       </c>
@@ -19766,8 +19871,11 @@
       <c r="G35" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H35" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="7" t="s">
         <v>67</v>
       </c>
@@ -19789,8 +19897,11 @@
       <c r="G36" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H36" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="7" t="s">
         <v>68</v>
       </c>
@@ -19812,8 +19923,11 @@
       <c r="G37" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H37" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="7" t="s">
         <v>69</v>
       </c>
@@ -19835,8 +19949,11 @@
       <c r="G38" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H38" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>70</v>
       </c>
@@ -19858,8 +19975,11 @@
       <c r="G39" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H39" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -19881,8 +20001,11 @@
       <c r="G40" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H40" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
         <v>72</v>
       </c>
@@ -19904,8 +20027,11 @@
       <c r="G41" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H41" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
         <v>73</v>
       </c>
@@ -19927,8 +20053,11 @@
       <c r="G42" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H42" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>74</v>
       </c>
@@ -19950,8 +20079,11 @@
       <c r="G43" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H43" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
         <v>75</v>
       </c>
@@ -19973,8 +20105,11 @@
       <c r="G44" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H44" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
         <v>76</v>
       </c>
@@ -19996,8 +20131,11 @@
       <c r="G45" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H45" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
         <v>77</v>
       </c>
@@ -20019,8 +20157,11 @@
       <c r="G46" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H46" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
         <v>78</v>
       </c>
@@ -20042,8 +20183,11 @@
       <c r="G47" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H47" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
         <v>79</v>
       </c>
@@ -20065,8 +20209,11 @@
       <c r="G48" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H48" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
         <v>80</v>
       </c>
@@ -20088,8 +20235,11 @@
       <c r="G49" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H49" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
         <v>81</v>
       </c>
@@ -20111,8 +20261,11 @@
       <c r="G50" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H50" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="7" t="s">
         <v>82</v>
       </c>
@@ -20134,8 +20287,11 @@
       <c r="G51" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H51" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="7" t="s">
         <v>83</v>
       </c>
@@ -20157,8 +20313,11 @@
       <c r="G52" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H52" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="7" t="s">
         <v>85</v>
       </c>
@@ -20180,8 +20339,11 @@
       <c r="G53" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H53" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="7" t="s">
         <v>86</v>
       </c>
@@ -20203,8 +20365,11 @@
       <c r="G54" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H54" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="7" t="s">
         <v>87</v>
       </c>
@@ -20226,8 +20391,11 @@
       <c r="G55" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H55" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="7" t="s">
         <v>88</v>
       </c>
@@ -20249,8 +20417,11 @@
       <c r="G56" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H56" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="7" t="s">
         <v>89</v>
       </c>
@@ -20272,8 +20443,11 @@
       <c r="G57" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H57" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="7" t="s">
         <v>91</v>
       </c>
@@ -20295,8 +20469,11 @@
       <c r="G58" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H58" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>92</v>
       </c>
@@ -20318,8 +20495,11 @@
       <c r="G59" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H59" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="7" t="s">
         <v>93</v>
       </c>
@@ -20341,8 +20521,11 @@
       <c r="G60" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H60" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="7" t="s">
         <v>95</v>
       </c>
@@ -20364,8 +20547,11 @@
       <c r="G61" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H61" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="7" t="s">
         <v>96</v>
       </c>
@@ -20387,8 +20573,11 @@
       <c r="G62" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H62" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="7" t="s">
         <v>97</v>
       </c>
@@ -20410,8 +20599,11 @@
       <c r="G63" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H63" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="7" t="s">
         <v>98</v>
       </c>
@@ -20433,8 +20625,11 @@
       <c r="G64" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H64" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="7" t="s">
         <v>99</v>
       </c>
@@ -20456,8 +20651,11 @@
       <c r="G65" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H65" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="7" t="s">
         <v>100</v>
       </c>
@@ -20479,8 +20677,11 @@
       <c r="G66" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H66" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="7" t="s">
         <v>101</v>
       </c>
@@ -20502,8 +20703,11 @@
       <c r="G67" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H67" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="7" t="s">
         <v>102</v>
       </c>
@@ -20525,8 +20729,11 @@
       <c r="G68" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H68" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="7" t="s">
         <v>103</v>
       </c>
@@ -20548,8 +20755,11 @@
       <c r="G69" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H69" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="7" t="s">
         <v>104</v>
       </c>
@@ -20571,8 +20781,11 @@
       <c r="G70" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H70" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="7" t="s">
         <v>105</v>
       </c>
@@ -20594,8 +20807,11 @@
       <c r="G71" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H71" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="7" t="s">
         <v>106</v>
       </c>
@@ -20617,8 +20833,11 @@
       <c r="G72" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H72" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
         <v>107</v>
       </c>
@@ -20640,8 +20859,11 @@
       <c r="G73" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H73" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
         <v>108</v>
       </c>
@@ -20663,8 +20885,11 @@
       <c r="G74" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H74" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
         <v>109</v>
       </c>
@@ -20686,8 +20911,11 @@
       <c r="G75" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H75" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
         <v>110</v>
       </c>
@@ -20709,8 +20937,11 @@
       <c r="G76" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H76" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
         <v>111</v>
       </c>
@@ -20732,8 +20963,11 @@
       <c r="G77" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H77" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
         <v>112</v>
       </c>
@@ -20755,8 +20989,11 @@
       <c r="G78" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H78" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
         <v>113</v>
       </c>
@@ -20778,8 +21015,11 @@
       <c r="G79" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H79" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
         <v>114</v>
       </c>
@@ -20801,8 +21041,11 @@
       <c r="G80" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H80" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
         <v>115</v>
       </c>
@@ -20824,8 +21067,11 @@
       <c r="G81" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H81" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
         <v>116</v>
       </c>
@@ -20847,8 +21093,11 @@
       <c r="G82" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H82" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
         <v>117</v>
       </c>
@@ -20870,8 +21119,11 @@
       <c r="G83" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H83" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
         <v>118</v>
       </c>
@@ -20893,8 +21145,11 @@
       <c r="G84" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H84" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="7" t="s">
         <v>119</v>
       </c>
@@ -20916,8 +21171,11 @@
       <c r="G85" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H85" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="7" t="s">
         <v>122</v>
       </c>
@@ -20939,8 +21197,11 @@
       <c r="G86" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H86" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="7" t="s">
         <v>123</v>
       </c>
@@ -20962,8 +21223,11 @@
       <c r="G87" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H87" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="7" t="s">
         <v>138</v>
       </c>
@@ -20985,8 +21249,11 @@
       <c r="G88" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H88" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="7" t="s">
         <v>139</v>
       </c>
@@ -21008,8 +21275,11 @@
       <c r="G89" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H89" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="7" t="s">
         <v>140</v>
       </c>
@@ -21031,8 +21301,11 @@
       <c r="G90" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H90" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="7" t="s">
         <v>141</v>
       </c>
@@ -21054,8 +21327,11 @@
       <c r="G91" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H91" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="7" t="s">
         <v>142</v>
       </c>
@@ -21077,8 +21353,11 @@
       <c r="G92" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H92" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="7" t="s">
         <v>143</v>
       </c>
@@ -21100,8 +21379,11 @@
       <c r="G93" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H93" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="7" t="s">
         <v>144</v>
       </c>
@@ -21123,8 +21405,11 @@
       <c r="G94" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H94" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
         <v>145</v>
       </c>
@@ -21146,8 +21431,11 @@
       <c r="G95" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H95" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
         <v>146</v>
       </c>
@@ -21169,8 +21457,11 @@
       <c r="G96" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H96" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
         <v>147</v>
       </c>
@@ -21192,8 +21483,11 @@
       <c r="G97" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H97" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
         <v>124</v>
       </c>
@@ -21215,8 +21509,11 @@
       <c r="G98" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H98" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
         <v>127</v>
       </c>
@@ -21238,8 +21535,11 @@
       <c r="G99" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H99" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="7" t="s">
         <v>130</v>
       </c>
@@ -21261,8 +21561,11 @@
       <c r="G100" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H100" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
         <v>131</v>
       </c>
@@ -21284,8 +21587,11 @@
       <c r="G101" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H101" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
         <v>132</v>
       </c>
@@ -21307,8 +21613,11 @@
       <c r="G102" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H102" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
         <v>133</v>
       </c>
@@ -21330,8 +21639,11 @@
       <c r="G103" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H103" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
         <v>134</v>
       </c>
@@ -21353,8 +21665,11 @@
       <c r="G104" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H104" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
         <v>135</v>
       </c>
@@ -21376,8 +21691,11 @@
       <c r="G105" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H105" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="7" t="s">
         <v>136</v>
       </c>
@@ -21399,8 +21717,11 @@
       <c r="G106" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H106" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="7" t="s">
         <v>137</v>
       </c>
@@ -21422,8 +21743,11 @@
       <c r="G107" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H107" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="7" t="s">
         <v>148</v>
       </c>
@@ -21445,8 +21769,11 @@
       <c r="G108" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H108" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="7" t="s">
         <v>149</v>
       </c>
@@ -21468,8 +21795,11 @@
       <c r="G109" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H109" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="7" t="s">
         <v>150</v>
       </c>
@@ -21491,8 +21821,11 @@
       <c r="G110" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H110" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="7" t="s">
         <v>151</v>
       </c>
@@ -21514,8 +21847,11 @@
       <c r="G111" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H111" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="7" t="s">
         <v>152</v>
       </c>
@@ -21537,8 +21873,11 @@
       <c r="G112" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H112" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="7" t="s">
         <v>153</v>
       </c>
@@ -21560,8 +21899,11 @@
       <c r="G113" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H113" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="7" t="s">
         <v>154</v>
       </c>
@@ -21583,8 +21925,11 @@
       <c r="G114" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H114" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="7" t="s">
         <v>155</v>
       </c>
@@ -21606,8 +21951,11 @@
       <c r="G115" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H115" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="7" t="s">
         <v>178</v>
       </c>
@@ -21629,8 +21977,11 @@
       <c r="G116" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H116" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="7" t="s">
         <v>179</v>
       </c>
@@ -21652,8 +22003,11 @@
       <c r="G117" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H117" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="7" t="s">
         <v>180</v>
       </c>
@@ -21675,8 +22029,11 @@
       <c r="G118" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H118" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="7" t="s">
         <v>181</v>
       </c>
@@ -21698,8 +22055,11 @@
       <c r="G119" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H119" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="7" t="s">
         <v>182</v>
       </c>
@@ -21721,8 +22081,11 @@
       <c r="G120" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H120" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="7" t="s">
         <v>183</v>
       </c>
@@ -21744,8 +22107,11 @@
       <c r="G121" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H121" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="7" t="s">
         <v>184</v>
       </c>
@@ -21767,8 +22133,11 @@
       <c r="G122" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H122" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="7" t="s">
         <v>185</v>
       </c>
@@ -21790,8 +22159,11 @@
       <c r="G123" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H123" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="7" t="s">
         <v>186</v>
       </c>
@@ -21813,8 +22185,11 @@
       <c r="G124" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H124" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="7" t="s">
         <v>187</v>
       </c>
@@ -21836,8 +22211,11 @@
       <c r="G125" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H125" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="7" t="s">
         <v>164</v>
       </c>
@@ -21859,8 +22237,11 @@
       <c r="G126" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H126" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="7" t="s">
         <v>167</v>
       </c>
@@ -21882,8 +22263,11 @@
       <c r="G127" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H127" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="7" t="s">
         <v>170</v>
       </c>
@@ -21905,8 +22289,11 @@
       <c r="G128" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H128" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="7" t="s">
         <v>171</v>
       </c>
@@ -21928,8 +22315,11 @@
       <c r="G129" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H129" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="7" t="s">
         <v>172</v>
       </c>
@@ -21951,8 +22341,11 @@
       <c r="G130" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H130" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
         <v>173</v>
       </c>
@@ -21974,8 +22367,11 @@
       <c r="G131" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H131" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
         <v>174</v>
       </c>
@@ -21997,8 +22393,11 @@
       <c r="G132" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H132" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
         <v>175</v>
       </c>
@@ -22020,8 +22419,11 @@
       <c r="G133" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H133" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
         <v>176</v>
       </c>
@@ -22043,8 +22445,11 @@
       <c r="G134" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H134" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="7" t="s">
         <v>177</v>
       </c>
@@ -22066,8 +22471,11 @@
       <c r="G135" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H135" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
         <v>156</v>
       </c>
@@ -22089,8 +22497,11 @@
       <c r="G136" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H136" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="7" t="s">
         <v>159</v>
       </c>
@@ -22112,8 +22523,11 @@
       <c r="G137" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H137" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
         <v>160</v>
       </c>
@@ -22135,8 +22549,11 @@
       <c r="G138" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H138" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
         <v>161</v>
       </c>
@@ -22158,8 +22575,11 @@
       <c r="G139" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H139" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
         <v>9</v>
       </c>
@@ -22178,11 +22598,12 @@
       <c r="F140" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G140" s="7" t="s">
+      <c r="G140" s="7"/>
+      <c r="H140" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="7" t="s">
         <v>11</v>
       </c>
@@ -22204,8 +22625,11 @@
       <c r="G141" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H141" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="7" t="s">
         <v>12</v>
       </c>
@@ -22227,8 +22651,11 @@
       <c r="G142" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H142" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="7" t="s">
         <v>13</v>
       </c>
@@ -22250,8 +22677,11 @@
       <c r="G143" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H143" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="7" t="s">
         <v>14</v>
       </c>
@@ -22273,8 +22703,11 @@
       <c r="G144" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H144" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="7" t="s">
         <v>15</v>
       </c>
@@ -22296,8 +22729,11 @@
       <c r="G145" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H145" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="7" t="s">
         <v>16</v>
       </c>
@@ -22319,8 +22755,11 @@
       <c r="G146" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H146" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="7" t="s">
         <v>17</v>
       </c>
@@ -22342,8 +22781,11 @@
       <c r="G147" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H147" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="7" t="s">
         <v>18</v>
       </c>
@@ -22365,8 +22807,11 @@
       <c r="G148" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H148" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="7" t="s">
         <v>19</v>
       </c>
@@ -22388,8 +22833,11 @@
       <c r="G149" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H149" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="7" t="s">
         <v>20</v>
       </c>
@@ -22411,8 +22859,11 @@
       <c r="G150" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H150" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="7" t="s">
         <v>239</v>
       </c>
@@ -22434,8 +22885,11 @@
       <c r="G151" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H151" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
         <v>242</v>
       </c>
@@ -22457,8 +22911,11 @@
       <c r="G152" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H152" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
         <v>244</v>
       </c>
@@ -22480,8 +22937,11 @@
       <c r="G153" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H153" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
         <v>246</v>
       </c>
@@ -22503,8 +22963,11 @@
       <c r="G154" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H154" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
         <v>248</v>
       </c>
@@ -22526,8 +22989,11 @@
       <c r="G155" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H155" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="7" t="s">
         <v>250</v>
       </c>
@@ -22549,8 +23015,11 @@
       <c r="G156" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H156" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="7" t="s">
         <v>252</v>
       </c>
@@ -22572,8 +23041,11 @@
       <c r="G157" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H157" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="7" t="s">
         <v>254</v>
       </c>
@@ -22595,8 +23067,11 @@
       <c r="G158" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H158" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="7" t="s">
         <v>256</v>
       </c>
@@ -22618,8 +23093,11 @@
       <c r="G159" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H159" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="7" t="s">
         <v>258</v>
       </c>
@@ -22641,8 +23119,11 @@
       <c r="G160" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H160" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="7" t="s">
         <v>260</v>
       </c>
@@ -22664,8 +23145,11 @@
       <c r="G161" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H161" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="7" t="s">
         <v>261</v>
       </c>
@@ -22687,8 +23171,11 @@
       <c r="G162" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H162" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="7" t="s">
         <v>21</v>
       </c>
@@ -22710,8 +23197,11 @@
       <c r="G163" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H163" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="7" t="s">
         <v>22</v>
       </c>
@@ -22733,8 +23223,11 @@
       <c r="G164" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H164" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="7" t="s">
         <v>33</v>
       </c>
@@ -22756,8 +23249,11 @@
       <c r="G165" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H165" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="7" t="s">
         <v>34</v>
       </c>
@@ -22779,8 +23275,11 @@
       <c r="G166" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H166" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="7" t="s">
         <v>36</v>
       </c>
@@ -22802,8 +23301,11 @@
       <c r="G167" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H167" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="7" t="s">
         <v>37</v>
       </c>
@@ -22825,8 +23327,11 @@
       <c r="G168" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H168" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="7" t="s">
         <v>38</v>
       </c>
@@ -22848,8 +23353,11 @@
       <c r="G169" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H169" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="7" t="s">
         <v>39</v>
       </c>
@@ -22871,8 +23379,11 @@
       <c r="G170" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H170" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="7" t="s">
         <v>40</v>
       </c>
@@ -22894,8 +23405,11 @@
       <c r="G171" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H171" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="7" t="s">
         <v>40</v>
       </c>
@@ -22917,8 +23431,11 @@
       <c r="G172" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H172" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="7" t="s">
         <v>41</v>
       </c>
@@ -22940,8 +23457,11 @@
       <c r="G173" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H173" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="7" t="s">
         <v>42</v>
       </c>
@@ -22963,8 +23483,11 @@
       <c r="G174" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H174" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="7" t="s">
         <v>43</v>
       </c>
@@ -22986,8 +23509,11 @@
       <c r="G175" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H175" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="7" t="s">
         <v>44</v>
       </c>
@@ -23009,8 +23535,11 @@
       <c r="G176" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H176" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="7" t="s">
         <v>45</v>
       </c>
@@ -23032,8 +23561,11 @@
       <c r="G177" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H177" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="7" t="s">
         <v>262</v>
       </c>
@@ -23055,8 +23587,11 @@
       <c r="G178" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H178" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="7" t="s">
         <v>264</v>
       </c>
@@ -23078,8 +23613,11 @@
       <c r="G179" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H179" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="7" t="s">
         <v>265</v>
       </c>
@@ -23101,8 +23639,11 @@
       <c r="G180" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H180" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="7" t="s">
         <v>266</v>
       </c>
@@ -23124,8 +23665,11 @@
       <c r="G181" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H181" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="7" t="s">
         <v>267</v>
       </c>
@@ -23147,8 +23691,11 @@
       <c r="G182" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H182" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="7" t="s">
         <v>268</v>
       </c>
@@ -23170,8 +23717,11 @@
       <c r="G183" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H183" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="7" t="s">
         <v>269</v>
       </c>
@@ -23193,8 +23743,11 @@
       <c r="G184" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H184" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="7" t="s">
         <v>270</v>
       </c>
@@ -23216,8 +23769,11 @@
       <c r="G185" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H185" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="7" t="s">
         <v>271</v>
       </c>
@@ -23239,8 +23795,11 @@
       <c r="G186" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H186" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="7" t="s">
         <v>272</v>
       </c>
@@ -23262,8 +23821,11 @@
       <c r="G187" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H187" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="7" t="s">
         <v>273</v>
       </c>
@@ -23285,8 +23847,11 @@
       <c r="G188" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H188" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="7" t="s">
         <v>274</v>
       </c>
@@ -23308,8 +23873,11 @@
       <c r="G189" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H189" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="7" t="s">
         <v>23</v>
       </c>
@@ -23331,8 +23899,11 @@
       <c r="G190" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H190" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="7" t="s">
         <v>24</v>
       </c>
@@ -23354,8 +23925,11 @@
       <c r="G191" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H191" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="7" t="s">
         <v>25</v>
       </c>
@@ -23377,8 +23951,11 @@
       <c r="G192" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H192" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="7" t="s">
         <v>26</v>
       </c>
@@ -23400,8 +23977,11 @@
       <c r="G193" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H193" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="7" t="s">
         <v>27</v>
       </c>
@@ -23423,8 +24003,11 @@
       <c r="G194" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H194" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="7" t="s">
         <v>28</v>
       </c>
@@ -23446,8 +24029,11 @@
       <c r="G195" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H195" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="7" t="s">
         <v>29</v>
       </c>
@@ -23469,8 +24055,11 @@
       <c r="G196" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H196" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="7" t="s">
         <v>30</v>
       </c>
@@ -23492,8 +24081,11 @@
       <c r="G197" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H197" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="7" t="s">
         <v>31</v>
       </c>
@@ -23515,8 +24107,11 @@
       <c r="G198" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H198" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="7" t="s">
         <v>32</v>
       </c>
@@ -23538,8 +24133,11 @@
       <c r="G199" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H199" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="7" t="s">
         <v>46</v>
       </c>
@@ -23561,8 +24159,11 @@
       <c r="G200" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H200" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="7" t="s">
         <v>47</v>
       </c>
@@ -23584,8 +24185,11 @@
       <c r="G201" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H201" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="7" t="s">
         <v>48</v>
       </c>
@@ -23607,8 +24211,11 @@
       <c r="G202" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H202" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="7" t="s">
         <v>49</v>
       </c>
@@ -23630,8 +24237,11 @@
       <c r="G203" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H203" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="7" t="s">
         <v>50</v>
       </c>
@@ -23653,8 +24263,11 @@
       <c r="G204" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H204" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="7" t="s">
         <v>51</v>
       </c>
@@ -23676,8 +24289,11 @@
       <c r="G205" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H205" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="7" t="s">
         <v>52</v>
       </c>
@@ -23699,8 +24315,11 @@
       <c r="G206" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H206" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="7" t="s">
         <v>53</v>
       </c>
@@ -23722,8 +24341,11 @@
       <c r="G207" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H207" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="7" t="s">
         <v>54</v>
       </c>
@@ -23745,8 +24367,11 @@
       <c r="G208" s="7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="H208" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" s="7" t="s">
         <v>55</v>
       </c>
@@ -23766,6 +24391,9 @@
         <v>218</v>
       </c>
       <c r="G209" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H209" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -26116,7 +26744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DAB7F3-C598-4D95-AE49-CE7F408ADE45}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>

--- a/202107_EXP2/ATPase/ATPase.xlsx
+++ b/202107_EXP2/ATPase/ATPase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Dropbox\UW\Postdoc\2021_NOPP_gigas_ploidy_temp\NOPP-gigas-ploidy-temp\202107_EXP2\ATPase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82054823-BE0E-49A3-A778-11B4B052EC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E55A7E-C6F1-4E92-B33E-C8AFCFB39372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32811" yWindow="-103" windowWidth="33120" windowHeight="18103" activeTab="2" xr2:uid="{51591A21-EB65-5B4F-A10E-A3E381C6E5E1}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="391">
   <si>
     <t>ID</t>
   </si>
@@ -674,9 +674,6 @@
   </si>
   <si>
     <t>trt_list</t>
-  </si>
-  <si>
-    <t>include</t>
   </si>
   <si>
     <t>D</t>
@@ -10987,7 +10984,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B244" s="1" t="str">
         <f>VLOOKUP(A244,key!A:B,2,FALSE)</f>
@@ -11017,7 +11014,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B245" s="1" t="str">
         <f>VLOOKUP(A245,key!A:B,2,FALSE)</f>
@@ -11047,7 +11044,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A246" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" s="1" t="str">
         <f>VLOOKUP(A246,key!A:B,2,FALSE)</f>
@@ -11077,7 +11074,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A247" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="1" t="str">
         <f>VLOOKUP(A247,key!A:B,2,FALSE)</f>
@@ -11107,7 +11104,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A248" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B248" s="1" t="str">
         <f>VLOOKUP(A248,key!A:B,2,FALSE)</f>
@@ -11137,7 +11134,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A249" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B249" s="1" t="str">
         <f>VLOOKUP(A249,key!A:B,2,FALSE)</f>
@@ -11167,7 +11164,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A250" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B250" s="1" t="str">
         <f>VLOOKUP(A250,key!A:B,2,FALSE)</f>
@@ -11197,7 +11194,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A251" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B251" s="1" t="str">
         <f>VLOOKUP(A251,key!A:B,2,FALSE)</f>
@@ -11227,7 +11224,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A252" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B252" s="1" t="str">
         <f>VLOOKUP(A252,key!A:B,2,FALSE)</f>
@@ -11257,7 +11254,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A253" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B253" s="1" t="str">
         <f>VLOOKUP(A253,key!A:B,2,FALSE)</f>
@@ -11287,7 +11284,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A254" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B254" s="1" t="str">
         <f>VLOOKUP(A254,key!A:B,2,FALSE)</f>
@@ -11317,7 +11314,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A255" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B255" s="1" t="str">
         <f>VLOOKUP(A255,key!A:B,2,FALSE)</f>
@@ -11797,7 +11794,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A271" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B271" s="1" t="str">
         <f>VLOOKUP(A271,key!A:B,2,FALSE)</f>
@@ -11827,7 +11824,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A272" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B272" s="1" t="str">
         <f>VLOOKUP(A272,key!A:B,2,FALSE)</f>
@@ -11857,7 +11854,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A273" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B273" s="1" t="str">
         <f>VLOOKUP(A273,key!A:B,2,FALSE)</f>
@@ -11887,7 +11884,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A274" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B274" s="1" t="str">
         <f>VLOOKUP(A274,key!A:B,2,FALSE)</f>
@@ -11917,7 +11914,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A275" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B275" s="1" t="str">
         <f>VLOOKUP(A275,key!A:B,2,FALSE)</f>
@@ -11947,7 +11944,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A276" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B276" s="1" t="str">
         <f>VLOOKUP(A276,key!A:B,2,FALSE)</f>
@@ -11977,7 +11974,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A277" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B277" s="1" t="str">
         <f>VLOOKUP(A277,key!A:B,2,FALSE)</f>
@@ -12007,7 +12004,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A278" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B278" s="1" t="str">
         <f>VLOOKUP(A278,key!A:B,2,FALSE)</f>
@@ -12037,7 +12034,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A279" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B279" s="1" t="str">
         <f>VLOOKUP(A279,key!A:B,2,FALSE)</f>
@@ -12067,7 +12064,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A280" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B280" s="1" t="str">
         <f>VLOOKUP(A280,key!A:B,2,FALSE)</f>
@@ -12097,7 +12094,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A281" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B281" s="1" t="str">
         <f>VLOOKUP(A281,key!A:B,2,FALSE)</f>
@@ -12127,7 +12124,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A282" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B282" s="1" t="str">
         <f>VLOOKUP(A282,key!A:B,2,FALSE)</f>
@@ -18928,8 +18925,8 @@
   <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K206" sqref="K206"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
@@ -18963,10 +18960,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -18974,25 +18971,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C2" s="7">
         <v>-10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E2" s="7">
         <v>3.4851636586111967</v>
       </c>
       <c r="F2" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I2" s="5"/>
     </row>
@@ -19001,25 +18998,25 @@
         <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="7">
         <v>-10</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" s="7">
         <v>4.2412307931088007</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I3" s="5"/>
     </row>
@@ -19028,25 +19025,25 @@
         <v>12</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="7">
         <v>-10</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="7">
         <v>6.0113397732045373</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -19055,25 +19052,25 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C5" s="7">
         <v>-10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E5" s="7">
         <v>3.6200980392156863</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I5" s="5"/>
     </row>
@@ -19082,25 +19079,25 @@
         <v>14</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="7">
         <v>-10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" s="7">
         <v>3.7081151832460733</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -19109,25 +19106,25 @@
         <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="7">
         <v>-10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="7">
         <v>8.0781584582441113</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -19136,25 +19133,25 @@
         <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="7">
         <v>-10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" s="7">
         <v>3.587203977495748</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -19163,25 +19160,25 @@
         <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C9" s="7">
         <v>-10</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="7">
         <v>3.232371960861149</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -19190,25 +19187,25 @@
         <v>18</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C10" s="7">
         <v>-10</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" s="7">
         <v>3.4177820267686427</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -19217,25 +19214,25 @@
         <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C11" s="7">
         <v>-10</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E11" s="7">
         <v>3.7018619934282584</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -19244,25 +19241,25 @@
         <v>20</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C12" s="7">
         <v>-10</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="7">
         <v>2.8354862905242104</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -19271,25 +19268,25 @@
         <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="7">
         <v>-10</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" s="7">
         <v>3.8657799274486093</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I13" s="5"/>
     </row>
@@ -19298,25 +19295,25 @@
         <v>22</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" s="7">
         <v>-10</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E14" s="7">
         <v>3.7556315939549476</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -19325,25 +19322,25 @@
         <v>33</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C15" s="7">
         <v>-10</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" s="7">
         <v>6.2131053477163203</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -19352,25 +19349,25 @@
         <v>34</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="10">
         <v>-10</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E16" s="10">
         <v>4.6259774550624559</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -19379,25 +19376,25 @@
         <v>36</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C17" s="7">
         <v>-10</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" s="7">
         <v>4.2132457893234365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -19406,25 +19403,25 @@
         <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C18" s="7">
         <v>-10</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E18" s="7">
         <v>6.6993192761082527</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -19433,25 +19430,25 @@
         <v>38</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C19" s="7">
         <v>-10</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E19" s="7">
         <v>7.9212096276486337</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -19460,25 +19457,25 @@
         <v>39</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C20" s="7">
         <v>-10</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E20" s="7">
         <v>3.443584521384929</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -19487,25 +19484,25 @@
         <v>40</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="7">
         <v>-10</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E21" s="7">
         <v>4.4756269869304131</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -19514,25 +19511,25 @@
         <v>41</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C22" s="7">
         <v>-10</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E22" s="7">
         <v>6.0223355183296921</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I22" s="5"/>
     </row>
@@ -19541,25 +19538,25 @@
         <v>42</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23" s="7">
         <v>-10</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" s="7">
         <v>6.9820287539936121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I23" s="5"/>
     </row>
@@ -19568,25 +19565,25 @@
         <v>43</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C24" s="7">
         <v>-10</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E24" s="7">
         <v>4.2802983219390924</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
@@ -19594,25 +19591,25 @@
         <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" s="7">
         <v>-10</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E25" s="7">
         <v>2.1920407218880156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
@@ -19620,25 +19617,25 @@
         <v>45</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C26" s="7">
         <v>-10</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E26" s="7">
         <v>2.5883402073347455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
@@ -19646,7 +19643,7 @@
         <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C27" s="7">
         <v>2</v>
@@ -19658,13 +19655,13 @@
         <v>2.0791565724137171</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
@@ -19672,7 +19669,7 @@
         <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="7">
         <v>2</v>
@@ -19684,13 +19681,13 @@
         <v>1.4191389087099822</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
@@ -19698,7 +19695,7 @@
         <v>58</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C29" s="7">
         <v>2</v>
@@ -19710,13 +19707,13 @@
         <v>1.5880885576860151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
@@ -19724,7 +19721,7 @@
         <v>59</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
@@ -19736,13 +19733,13 @@
         <v>1.9785116020259754</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
@@ -19750,7 +19747,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31" s="7">
         <v>2</v>
@@ -19762,13 +19759,13 @@
         <v>1.8160416582743237</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
@@ -19776,7 +19773,7 @@
         <v>61</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
@@ -19788,13 +19785,13 @@
         <v>2.150149256866797</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
@@ -19802,7 +19799,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="7">
         <v>2</v>
@@ -19814,13 +19811,13 @@
         <v>1.3679732913801268</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
@@ -19828,7 +19825,7 @@
         <v>63</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C34" s="7">
         <v>2</v>
@@ -19840,13 +19837,13 @@
         <v>2.0978562393777245</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
@@ -19854,7 +19851,7 @@
         <v>66</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C35" s="7">
         <v>2</v>
@@ -19866,13 +19863,13 @@
         <v>0.62663905425519395</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
@@ -19880,7 +19877,7 @@
         <v>67</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C36" s="7">
         <v>2</v>
@@ -19892,13 +19889,13 @@
         <v>1.7474842481903849</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
@@ -19906,7 +19903,7 @@
         <v>68</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C37" s="7">
         <v>2</v>
@@ -19918,13 +19915,13 @@
         <v>1.9119704004770148</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
@@ -19932,7 +19929,7 @@
         <v>69</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -19944,13 +19941,13 @@
         <v>2.0037861401761918</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
@@ -19958,7 +19955,7 @@
         <v>70</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C39" s="7">
         <v>6</v>
@@ -19970,13 +19967,13 @@
         <v>1.9106595092024539</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -19984,7 +19981,7 @@
         <v>71</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C40" s="7">
         <v>6</v>
@@ -19996,13 +19993,13 @@
         <v>2.6610229905542679</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -20010,7 +20007,7 @@
         <v>72</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C41" s="7">
         <v>6</v>
@@ -20022,13 +20019,13 @@
         <v>0.28842177808407987</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -20036,7 +20033,7 @@
         <v>73</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C42" s="7">
         <v>6</v>
@@ -20048,13 +20045,13 @@
         <v>1.9807377049180332</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -20062,7 +20059,7 @@
         <v>74</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C43" s="7">
         <v>6</v>
@@ -20074,13 +20071,13 @@
         <v>0.44195912070960269</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -20088,7 +20085,7 @@
         <v>75</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C44" s="7">
         <v>6</v>
@@ -20100,13 +20097,13 @@
         <v>1.5197969543147203</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -20114,7 +20111,7 @@
         <v>76</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" s="7">
         <v>6</v>
@@ -20126,13 +20123,13 @@
         <v>1.8424575663399476</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -20140,7 +20137,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C46" s="7">
         <v>6</v>
@@ -20152,13 +20149,13 @@
         <v>2.3200147302522551</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
@@ -20166,7 +20163,7 @@
         <v>78</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" s="7">
         <v>6</v>
@@ -20178,13 +20175,13 @@
         <v>0.22627737226277372</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
@@ -20192,7 +20189,7 @@
         <v>79</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C48" s="7">
         <v>6</v>
@@ -20204,13 +20201,13 @@
         <v>2.0980420594633791</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
@@ -20218,7 +20215,7 @@
         <v>80</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="7">
         <v>6</v>
@@ -20230,13 +20227,13 @@
         <v>1.8306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
@@ -20244,7 +20241,7 @@
         <v>81</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C50" s="7">
         <v>6</v>
@@ -20256,13 +20253,13 @@
         <v>2.6973372781065086</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
@@ -20270,7 +20267,7 @@
         <v>82</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="7">
         <v>6</v>
@@ -20282,13 +20279,13 @@
         <v>1.3367234744365033</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
@@ -20296,7 +20293,7 @@
         <v>83</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C52" s="7">
         <v>2</v>
@@ -20308,13 +20305,13 @@
         <v>2.0084332533972616E-2</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
@@ -20322,7 +20319,7 @@
         <v>85</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="7">
         <v>2</v>
@@ -20334,13 +20331,13 @@
         <v>0.147671358294616</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
@@ -20348,7 +20345,7 @@
         <v>86</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C54" s="7">
         <v>2</v>
@@ -20360,13 +20357,13 @@
         <v>1E-3</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
@@ -20374,7 +20371,7 @@
         <v>87</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C55" s="7">
         <v>2</v>
@@ -20386,13 +20383,13 @@
         <v>6.4642976091352555E-2</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
@@ -20400,7 +20397,7 @@
         <v>88</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C56" s="7">
         <v>2</v>
@@ -20412,13 +20409,13 @@
         <v>0.23542997304556071</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
@@ -20426,7 +20423,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="7">
         <v>2</v>
@@ -20438,13 +20435,13 @@
         <v>0.13454423380726693</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
@@ -20452,7 +20449,7 @@
         <v>91</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58" s="7">
         <v>2</v>
@@ -20464,13 +20461,13 @@
         <v>1.5792208227720756</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
@@ -20478,7 +20475,7 @@
         <v>92</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="7">
         <v>2</v>
@@ -20490,13 +20487,13 @@
         <v>0.82780759913816548</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
@@ -20504,7 +20501,7 @@
         <v>93</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C60" s="7">
         <v>2</v>
@@ -20516,13 +20513,13 @@
         <v>1.3793084104216931</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
@@ -20530,7 +20527,7 @@
         <v>95</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="7">
         <v>2</v>
@@ -20542,13 +20539,13 @@
         <v>1.4956479829369198</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
@@ -20556,7 +20553,7 @@
         <v>96</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="7">
         <v>2</v>
@@ -20568,13 +20565,13 @@
         <v>1.0880212499068005</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
@@ -20582,7 +20579,7 @@
         <v>97</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" s="7">
         <v>2</v>
@@ -20594,13 +20591,13 @@
         <v>1.5306204855907777</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
@@ -20608,7 +20605,7 @@
         <v>98</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="7">
         <v>6</v>
@@ -20620,13 +20617,13 @@
         <v>0.9851801953519701</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
@@ -20634,7 +20631,7 @@
         <v>99</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="7">
         <v>6</v>
@@ -20646,13 +20643,13 @@
         <v>1.2902979373567613</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
@@ -20660,7 +20657,7 @@
         <v>100</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66" s="7">
         <v>6</v>
@@ -20672,13 +20669,13 @@
         <v>0.75</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
@@ -20686,7 +20683,7 @@
         <v>101</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="7">
         <v>6</v>
@@ -20698,13 +20695,13 @@
         <v>1.6837434818406372</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
@@ -20712,7 +20709,7 @@
         <v>102</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="7">
         <v>6</v>
@@ -20724,13 +20721,13 @@
         <v>1.4078014184397163</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
@@ -20738,7 +20735,7 @@
         <v>103</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="7">
         <v>6</v>
@@ -20750,13 +20747,13 @@
         <v>2.5023405500292566</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
@@ -20764,7 +20761,7 @@
         <v>104</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="7">
         <v>6</v>
@@ -20776,13 +20773,13 @@
         <v>2.0693081017149613</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H70" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
@@ -20790,7 +20787,7 @@
         <v>105</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="7">
         <v>6</v>
@@ -20802,13 +20799,13 @@
         <v>1.6054811022436375</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
@@ -20816,7 +20813,7 @@
         <v>106</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C72" s="7">
         <v>6</v>
@@ -20828,13 +20825,13 @@
         <v>0.24319629415170815</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
@@ -20842,7 +20839,7 @@
         <v>107</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="7">
         <v>6</v>
@@ -20854,13 +20851,13 @@
         <v>1.8297275641025643</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
@@ -20868,7 +20865,7 @@
         <v>108</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="7">
         <v>6</v>
@@ -20880,13 +20877,13 @@
         <v>1.4320913461538463</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
@@ -20894,7 +20891,7 @@
         <v>109</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C75" s="7">
         <v>6</v>
@@ -20906,13 +20903,13 @@
         <v>1.3903924221921513</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
@@ -20920,7 +20917,7 @@
         <v>110</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C76" s="7">
         <v>1</v>
@@ -20932,13 +20929,13 @@
         <v>3.0016902061105539</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
@@ -20946,7 +20943,7 @@
         <v>111</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
@@ -20958,13 +20955,13 @@
         <v>3.0149544540083646</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
@@ -20972,7 +20969,7 @@
         <v>112</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
@@ -20984,13 +20981,13 @@
         <v>2.6080522473741872</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
@@ -20998,7 +20995,7 @@
         <v>113</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
@@ -21010,13 +21007,13 @@
         <v>4.2078169635900897</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
@@ -21024,7 +21021,7 @@
         <v>114</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
@@ -21036,13 +21033,13 @@
         <v>4.542296888549239</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
@@ -21050,7 +21047,7 @@
         <v>115</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
@@ -21062,13 +21059,13 @@
         <v>3.6987559808612445</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
@@ -21076,7 +21073,7 @@
         <v>116</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
@@ -21088,13 +21085,13 @@
         <v>3.4533067393050274</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
@@ -21102,7 +21099,7 @@
         <v>117</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
@@ -21114,13 +21111,13 @@
         <v>2.5233294181828514</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
@@ -21128,7 +21125,7 @@
         <v>118</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
@@ -21140,13 +21137,13 @@
         <v>3.3104854144079479</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
@@ -21154,7 +21151,7 @@
         <v>119</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
@@ -21166,13 +21163,13 @@
         <v>3.3616684838859561</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
@@ -21180,7 +21177,7 @@
         <v>122</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
@@ -21192,13 +21189,13 @@
         <v>3.2271805273833665</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
@@ -21206,7 +21203,7 @@
         <v>123</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
@@ -21218,13 +21215,13 @@
         <v>3.2622898717546116</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
@@ -21232,7 +21229,7 @@
         <v>138</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C88" s="7">
         <v>5</v>
@@ -21244,13 +21241,13 @@
         <v>2.2797976836241025</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
@@ -21258,7 +21255,7 @@
         <v>139</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C89" s="7">
         <v>5</v>
@@ -21270,13 +21267,13 @@
         <v>1.7587890625000004</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
@@ -21284,7 +21281,7 @@
         <v>140</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C90" s="7">
         <v>5</v>
@@ -21296,13 +21293,13 @@
         <v>2.429792082027912</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
@@ -21310,7 +21307,7 @@
         <v>141</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" s="7">
         <v>5</v>
@@ -21322,13 +21319,13 @@
         <v>1.674091778202677</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
@@ -21336,7 +21333,7 @@
         <v>142</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="7">
         <v>5</v>
@@ -21348,13 +21345,13 @@
         <v>2.5170527296007452</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
@@ -21362,7 +21359,7 @@
         <v>143</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C93" s="7">
         <v>5</v>
@@ -21374,13 +21371,13 @@
         <v>2.3530571992110461</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
@@ -21388,7 +21385,7 @@
         <v>144</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C94" s="7">
         <v>5</v>
@@ -21400,13 +21397,13 @@
         <v>2.1331343283582087</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
@@ -21414,7 +21411,7 @@
         <v>145</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C95" s="7">
         <v>5</v>
@@ -21426,13 +21423,13 @@
         <v>1.953723034098817</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
@@ -21440,7 +21437,7 @@
         <v>146</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C96" s="7">
         <v>5</v>
@@ -21452,13 +21449,13 @@
         <v>2.5893762398060396</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
@@ -21466,7 +21463,7 @@
         <v>147</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C97" s="7">
         <v>5</v>
@@ -21478,13 +21475,13 @@
         <v>2.8175203725261935</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
@@ -21492,7 +21489,7 @@
         <v>124</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" s="7">
         <v>10</v>
@@ -21504,13 +21501,13 @@
         <v>2.0115998160935735</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
@@ -21518,7 +21515,7 @@
         <v>127</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C99" s="7">
         <v>10</v>
@@ -21530,13 +21527,13 @@
         <v>1.7209376868608439</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
@@ -21544,7 +21541,7 @@
         <v>130</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C100" s="7">
         <v>10</v>
@@ -21556,13 +21553,13 @@
         <v>3.3840663136081042</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
@@ -21570,7 +21567,7 @@
         <v>131</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C101" s="7">
         <v>10</v>
@@ -21582,13 +21579,13 @@
         <v>2.5018424689083374</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
@@ -21596,7 +21593,7 @@
         <v>132</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C102" s="7">
         <v>10</v>
@@ -21608,13 +21605,13 @@
         <v>2.7284754304913905</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
@@ -21622,7 +21619,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C103" s="7">
         <v>10</v>
@@ -21634,13 +21631,13 @@
         <v>2.2745681953543775</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
@@ -21648,7 +21645,7 @@
         <v>134</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C104" s="7">
         <v>10</v>
@@ -21660,13 +21657,13 @@
         <v>1.7003533568904594</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
@@ -21674,7 +21671,7 @@
         <v>135</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C105" s="7">
         <v>10</v>
@@ -21686,13 +21683,13 @@
         <v>1.188488645262334</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
@@ -21700,7 +21697,7 @@
         <v>136</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C106" s="7">
         <v>10</v>
@@ -21712,13 +21709,13 @@
         <v>1.4020049560711869</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G106" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
@@ -21726,7 +21723,7 @@
         <v>137</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C107" s="7">
         <v>10</v>
@@ -21738,13 +21735,13 @@
         <v>2.4113428943937412</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
@@ -21752,7 +21749,7 @@
         <v>148</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C108" s="7">
         <v>1</v>
@@ -21764,13 +21761,13 @@
         <v>1.8283791109350667</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G108" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
@@ -21778,7 +21775,7 @@
         <v>149</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C109" s="7">
         <v>1</v>
@@ -21790,13 +21787,13 @@
         <v>1.9321679197636095</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
@@ -21804,7 +21801,7 @@
         <v>150</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C110" s="7">
         <v>1</v>
@@ -21816,13 +21813,13 @@
         <v>3.6194754957463959</v>
       </c>
       <c r="F110" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G110" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
@@ -21830,7 +21827,7 @@
         <v>151</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C111" s="7">
         <v>1</v>
@@ -21842,13 +21839,13 @@
         <v>5.1864317996873011</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
@@ -21856,7 +21853,7 @@
         <v>152</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C112" s="7">
         <v>1</v>
@@ -21868,13 +21865,13 @@
         <v>2.2933915299780208</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
@@ -21882,7 +21879,7 @@
         <v>153</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C113" s="7">
         <v>1</v>
@@ -21894,13 +21891,13 @@
         <v>3.3929313929313927</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
@@ -21908,7 +21905,7 @@
         <v>154</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C114" s="7">
         <v>1</v>
@@ -21920,13 +21917,13 @@
         <v>3.016134094249038</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
@@ -21934,7 +21931,7 @@
         <v>155</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C115" s="7">
         <v>1</v>
@@ -21946,13 +21943,13 @@
         <v>3.653987645090119</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G115" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
@@ -21960,7 +21957,7 @@
         <v>178</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C116" s="7">
         <v>5</v>
@@ -21972,13 +21969,13 @@
         <v>1.2242551613302015</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
@@ -21986,7 +21983,7 @@
         <v>179</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C117" s="7">
         <v>5</v>
@@ -21998,13 +21995,13 @@
         <v>1.2195491570373176</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
@@ -22012,7 +22009,7 @@
         <v>180</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C118" s="7">
         <v>5</v>
@@ -22024,13 +22021,13 @@
         <v>1.1559897501601539</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
@@ -22038,7 +22035,7 @@
         <v>181</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C119" s="7">
         <v>5</v>
@@ -22050,13 +22047,13 @@
         <v>0.89272030651340939</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
@@ -22064,7 +22061,7 @@
         <v>182</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C120" s="7">
         <v>5</v>
@@ -22076,13 +22073,13 @@
         <v>1.4194695989650712</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
@@ -22090,7 +22087,7 @@
         <v>183</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C121" s="7">
         <v>5</v>
@@ -22102,13 +22099,13 @@
         <v>1.6453201970443352</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
@@ -22116,7 +22113,7 @@
         <v>184</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C122" s="7">
         <v>5</v>
@@ -22128,13 +22125,13 @@
         <v>1.3487764066094965</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G122" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
@@ -22142,7 +22139,7 @@
         <v>185</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C123" s="7">
         <v>5</v>
@@ -22154,13 +22151,13 @@
         <v>1.3230501178640972</v>
       </c>
       <c r="F123" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
@@ -22168,7 +22165,7 @@
         <v>186</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C124" s="7">
         <v>5</v>
@@ -22180,13 +22177,13 @@
         <v>2.5549402506557852</v>
       </c>
       <c r="F124" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H124" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
@@ -22194,7 +22191,7 @@
         <v>187</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C125" s="7">
         <v>5</v>
@@ -22206,13 +22203,13 @@
         <v>1.3223972713984087</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H125" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
@@ -22220,7 +22217,7 @@
         <v>164</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C126" s="7">
         <v>10</v>
@@ -22232,13 +22229,13 @@
         <v>1.5038985716358333</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
@@ -22246,7 +22243,7 @@
         <v>167</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C127" s="7">
         <v>10</v>
@@ -22258,13 +22255,13 @@
         <v>2.2523654950080365</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
@@ -22272,7 +22269,7 @@
         <v>170</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C128" s="7">
         <v>10</v>
@@ -22284,13 +22281,13 @@
         <v>2.8544923301680059</v>
       </c>
       <c r="F128" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G128" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
@@ -22298,7 +22295,7 @@
         <v>171</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C129" s="7">
         <v>10</v>
@@ -22310,13 +22307,13 @@
         <v>2.4150371798402643</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
@@ -22324,7 +22321,7 @@
         <v>172</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C130" s="7">
         <v>10</v>
@@ -22336,13 +22333,13 @@
         <v>3.8978933383943817</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
@@ -22350,7 +22347,7 @@
         <v>173</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C131" s="7">
         <v>10</v>
@@ -22362,13 +22359,13 @@
         <v>1.3942040111313694</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
@@ -22376,7 +22373,7 @@
         <v>174</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C132" s="7">
         <v>10</v>
@@ -22388,13 +22385,13 @@
         <v>2.7804991474190053</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
@@ -22402,7 +22399,7 @@
         <v>175</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C133" s="7">
         <v>10</v>
@@ -22414,13 +22411,13 @@
         <v>2.4409178640360274</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
@@ -22428,7 +22425,7 @@
         <v>176</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" s="7">
         <v>10</v>
@@ -22440,13 +22437,13 @@
         <v>2.1211394302848583</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
@@ -22454,7 +22451,7 @@
         <v>177</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C135" s="7">
         <v>10</v>
@@ -22466,13 +22463,13 @@
         <v>2.2803966657085373</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H135" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
@@ -22480,7 +22477,7 @@
         <v>156</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" s="7">
         <v>1</v>
@@ -22492,13 +22489,13 @@
         <v>2.1742873871703026</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
@@ -22506,7 +22503,7 @@
         <v>159</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C137" s="7">
         <v>1</v>
@@ -22518,13 +22515,13 @@
         <v>2.7920758970040005</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
@@ -22532,7 +22529,7 @@
         <v>160</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C138" s="7">
         <v>1</v>
@@ -22544,13 +22541,13 @@
         <v>4.0078976554156913</v>
       </c>
       <c r="F138" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
@@ -22558,7 +22555,7 @@
         <v>161</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C139" s="7">
         <v>1</v>
@@ -22570,13 +22567,13 @@
         <v>2.6704942419501849</v>
       </c>
       <c r="F139" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
@@ -22584,7 +22581,7 @@
         <v>9</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C140" s="7">
         <v>1</v>
@@ -22596,11 +22593,13 @@
         <v>5.5356125356125343</v>
       </c>
       <c r="F140" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G140" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G140" s="7"/>
       <c r="H140" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
@@ -22608,7 +22607,7 @@
         <v>11</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
@@ -22620,13 +22619,13 @@
         <v>5.515876205787781</v>
       </c>
       <c r="F141" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G141" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G141" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H141" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
@@ -22634,7 +22633,7 @@
         <v>12</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
@@ -22646,13 +22645,13 @@
         <v>5.349289772727273</v>
       </c>
       <c r="F142" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H142" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
@@ -22660,7 +22659,7 @@
         <v>13</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C143" s="7">
         <v>1</v>
@@ -22672,13 +22671,13 @@
         <v>6.2935006877579083</v>
       </c>
       <c r="F143" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G143" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H143" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
@@ -22686,7 +22685,7 @@
         <v>14</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C144" s="7">
         <v>1</v>
@@ -22698,13 +22697,13 @@
         <v>5.5877546689303905</v>
       </c>
       <c r="F144" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G144" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G144" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H144" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
@@ -22712,7 +22711,7 @@
         <v>15</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C145" s="7">
         <v>1</v>
@@ -22724,13 +22723,13 @@
         <v>7.1567286245353161</v>
       </c>
       <c r="F145" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G145" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G145" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H145" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
@@ -22738,7 +22737,7 @@
         <v>16</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C146" s="7">
         <v>1</v>
@@ -22750,13 +22749,13 @@
         <v>8.7339130434782621</v>
       </c>
       <c r="F146" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G146" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G146" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H146" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
@@ -22764,7 +22763,7 @@
         <v>17</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C147" s="7">
         <v>1</v>
@@ -22776,13 +22775,13 @@
         <v>8.1009174311926611</v>
       </c>
       <c r="F147" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G147" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H147" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
@@ -22790,7 +22789,7 @@
         <v>18</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C148" s="7">
         <v>1</v>
@@ -22802,13 +22801,13 @@
         <v>4.5179621162638792</v>
       </c>
       <c r="F148" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G148" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G148" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H148" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
@@ -22816,7 +22815,7 @@
         <v>19</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C149" s="7">
         <v>1</v>
@@ -22828,13 +22827,13 @@
         <v>5.1481023612313015</v>
       </c>
       <c r="F149" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G149" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G149" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H149" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
@@ -22842,7 +22841,7 @@
         <v>20</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C150" s="7">
         <v>1</v>
@@ -22854,325 +22853,325 @@
         <v>5.0245822930670254</v>
       </c>
       <c r="F150" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G150" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G150" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H150" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C151" s="7">
         <v>10</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E151" s="7">
         <v>7.9619324001365639</v>
       </c>
       <c r="F151" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G151" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H151" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C152" s="7">
         <v>10</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E152" s="7">
         <v>6.5601778342330901</v>
       </c>
       <c r="F152" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G152" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G152" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H152" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C153" s="7">
         <v>10</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E153" s="7">
         <v>5.3811692307692303</v>
       </c>
       <c r="F153" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G153" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G153" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H153" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C154" s="7">
         <v>10</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E154" s="7">
         <v>4.254364089775561</v>
       </c>
       <c r="F154" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G154" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G154" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H154" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C155" s="7">
         <v>10</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E155" s="7">
         <v>9.3780151999118821</v>
       </c>
       <c r="F155" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G155" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G155" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H155" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C156" s="7">
         <v>10</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E156" s="7">
         <v>9.0721382289416841</v>
       </c>
       <c r="F156" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G156" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H156" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C157" s="7">
         <v>10</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E157" s="7">
         <v>6.9185340314136115</v>
       </c>
       <c r="F157" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G157" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G157" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H157" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C158" s="7">
         <v>10</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E158" s="7">
         <v>7.0041841004184109</v>
       </c>
       <c r="F158" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G158" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G158" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H158" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C159" s="7">
         <v>10</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E159" s="7">
         <v>5.290050963882118</v>
       </c>
       <c r="F159" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G159" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G159" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H159" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C160" s="7">
         <v>10</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E160" s="7">
         <v>6.6163996229971742</v>
       </c>
       <c r="F160" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G160" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G160" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H160" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C161" s="7">
         <v>10</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E161" s="7">
         <v>6.1639135959339262</v>
       </c>
       <c r="F161" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G161" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G161" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H161" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C162" s="7">
         <v>10</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E162" s="7">
         <v>5.1539466806063778</v>
       </c>
       <c r="F162" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G162" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G162" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H162" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
@@ -23180,7 +23179,7 @@
         <v>21</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C163" s="7">
         <v>1</v>
@@ -23192,13 +23191,13 @@
         <v>4.4441926345609071</v>
       </c>
       <c r="F163" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G163" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H163" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
@@ -23206,7 +23205,7 @@
         <v>22</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C164" s="7">
         <v>1</v>
@@ -23218,13 +23217,13 @@
         <v>5.680084004200209</v>
       </c>
       <c r="F164" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G164" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G164" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H164" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
@@ -23232,7 +23231,7 @@
         <v>33</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C165" s="7">
         <v>1</v>
@@ -23244,13 +23243,13 @@
         <v>6.2988309790550421</v>
       </c>
       <c r="F165" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G165" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G165" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H165" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
@@ -23258,7 +23257,7 @@
         <v>34</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C166" s="7">
         <v>1</v>
@@ -23270,13 +23269,13 @@
         <v>5.2394794659455801</v>
       </c>
       <c r="F166" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G166" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G166" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H166" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
@@ -23284,7 +23283,7 @@
         <v>36</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C167" s="7">
         <v>1</v>
@@ -23296,13 +23295,13 @@
         <v>5.4759271307742363</v>
       </c>
       <c r="F167" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G167" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G167" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H167" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
@@ -23310,7 +23309,7 @@
         <v>37</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C168" s="7">
         <v>1</v>
@@ -23322,13 +23321,13 @@
         <v>5.9344401873137498</v>
       </c>
       <c r="F168" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G168" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G168" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H168" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
@@ -23336,7 +23335,7 @@
         <v>38</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C169" s="7">
         <v>1</v>
@@ -23348,13 +23347,13 @@
         <v>10.085744908896036</v>
       </c>
       <c r="F169" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G169" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G169" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H169" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
@@ -23362,7 +23361,7 @@
         <v>39</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C170" s="7">
         <v>1</v>
@@ -23374,13 +23373,13 @@
         <v>5.4360428481411471</v>
       </c>
       <c r="F170" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G170" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G170" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H170" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
@@ -23388,7 +23387,7 @@
         <v>40</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C171" s="7">
         <v>1</v>
@@ -23400,13 +23399,13 @@
         <v>4.5006914035492045</v>
       </c>
       <c r="F171" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G171" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G171" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H171" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
@@ -23414,7 +23413,7 @@
         <v>40</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C172" s="7">
         <v>1</v>
@@ -23426,13 +23425,13 @@
         <v>6.690694190111536</v>
       </c>
       <c r="F172" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G172" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G172" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H172" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
@@ -23440,7 +23439,7 @@
         <v>41</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C173" s="7">
         <v>1</v>
@@ -23452,13 +23451,13 @@
         <v>3.605707272169377</v>
       </c>
       <c r="F173" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G173" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G173" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H173" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
@@ -23466,7 +23465,7 @@
         <v>42</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C174" s="7">
         <v>1</v>
@@ -23478,13 +23477,13 @@
         <v>5.8456435998565786</v>
       </c>
       <c r="F174" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G174" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G174" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H174" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
@@ -23492,7 +23491,7 @@
         <v>43</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C175" s="7">
         <v>1</v>
@@ -23504,13 +23503,13 @@
         <v>4.121130829550145</v>
       </c>
       <c r="F175" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G175" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G175" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H175" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
@@ -23518,7 +23517,7 @@
         <v>44</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C176" s="7">
         <v>1</v>
@@ -23530,13 +23529,13 @@
         <v>3.8386134923592996</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G176" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G176" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H176" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
@@ -23544,7 +23543,7 @@
         <v>45</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C177" s="7">
         <v>1</v>
@@ -23556,325 +23555,325 @@
         <v>4.7728561782579337</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G177" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G177" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H177" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C178" s="7">
         <v>10</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E178" s="7">
         <v>5.013650885855359</v>
       </c>
       <c r="F178" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G178" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G178" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H178" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C179" s="7">
         <v>10</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E179" s="7">
         <v>6.4900616860863609</v>
       </c>
       <c r="F179" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G179" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H179" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C180" s="7">
         <v>10</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E180" s="7">
         <v>5.4480032162958985</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G180" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H180" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C181" s="7">
         <v>10</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E181" s="7">
         <v>4.7320023487962413</v>
       </c>
       <c r="F181" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G181" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H181" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C182" s="7">
         <v>10</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E182" s="7">
         <v>6.499332991277579</v>
       </c>
       <c r="F182" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G182" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G182" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H182" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C183" s="7">
         <v>10</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E183" s="7">
         <v>4.4078145695364244</v>
       </c>
       <c r="F183" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G183" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G183" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H183" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C184" s="7">
         <v>10</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E184" s="7">
         <v>5.6433734939759033</v>
       </c>
       <c r="F184" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G184" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H184" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C185" s="7">
         <v>10</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E185" s="7">
         <v>6.6702679343128777</v>
       </c>
       <c r="F185" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G185" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G185" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H185" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C186" s="7">
         <v>10</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E186" s="7">
         <v>6.2701080432172871</v>
       </c>
       <c r="F186" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G186" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G186" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H186" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C187" s="7">
         <v>10</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E187" s="7">
         <v>5.9687462144155052</v>
       </c>
       <c r="F187" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G187" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H187" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C188" s="7">
         <v>10</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E188" s="7">
         <v>4.0914099163436033</v>
       </c>
       <c r="F188" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G188" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G188" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H188" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C189" s="7">
         <v>10</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E189" s="7">
         <v>6.0930875576036874</v>
       </c>
       <c r="F189" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G189" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G189" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="H189" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.45">
@@ -23882,25 +23881,25 @@
         <v>23</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C190" s="7">
         <v>11</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E190" s="7">
         <v>5.4771547248182761</v>
       </c>
       <c r="F190" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.45">
@@ -23908,25 +23907,25 @@
         <v>24</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C191" s="7">
         <v>11</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E191" s="7">
         <v>2.7796901893287429</v>
       </c>
       <c r="F191" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
@@ -23934,25 +23933,25 @@
         <v>25</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C192" s="7">
         <v>11</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E192" s="7">
         <v>3.7954569921412422</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.45">
@@ -23960,25 +23959,25 @@
         <v>26</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C193" s="7">
         <v>11</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E193" s="7">
         <v>2.8895243829018669</v>
       </c>
       <c r="F193" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.45">
@@ -23986,25 +23985,25 @@
         <v>27</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C194" s="7">
         <v>11</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E194" s="7">
         <v>2.8327969572849621</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.45">
@@ -24012,25 +24011,25 @@
         <v>28</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C195" s="7">
         <v>11</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E195" s="7">
         <v>4.3180686908909909</v>
       </c>
       <c r="F195" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.45">
@@ -24038,25 +24037,25 @@
         <v>29</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C196" s="7">
         <v>11</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E196" s="7">
         <v>2.1365173288250219</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G196" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.45">
@@ -24064,25 +24063,25 @@
         <v>30</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C197" s="7">
         <v>11</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E197" s="7">
         <v>1.8006986221618468</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.45">
@@ -24090,25 +24089,25 @@
         <v>31</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C198" s="7">
         <v>11</v>
       </c>
       <c r="D198" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E198" s="7">
         <v>2.0631725787166206</v>
       </c>
       <c r="F198" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G198" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.45">
@@ -24116,25 +24115,25 @@
         <v>32</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="7">
         <v>11</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E199" s="7">
         <v>1.1767461669505961</v>
       </c>
       <c r="F199" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.45">
@@ -24142,25 +24141,25 @@
         <v>46</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C200" s="7">
         <v>11</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E200" s="7">
         <v>3.5932237571846324</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G200" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.45">
@@ -24168,25 +24167,25 @@
         <v>47</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C201" s="7">
         <v>11</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E201" s="7">
         <v>1.1600566572237963</v>
       </c>
       <c r="F201" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G201" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.45">
@@ -24194,25 +24193,25 @@
         <v>48</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C202" s="7">
         <v>11</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E202" s="7">
         <v>2.4434572670207624</v>
       </c>
       <c r="F202" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G202" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.45">
@@ -24220,25 +24219,25 @@
         <v>49</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C203" s="7">
         <v>11</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E203" s="7">
         <v>2.6481053372198211</v>
       </c>
       <c r="F203" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G203" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.45">
@@ -24246,25 +24245,25 @@
         <v>50</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C204" s="7">
         <v>11</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E204" s="7">
         <v>1.4316696656880388</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G204" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.45">
@@ -24272,25 +24271,25 @@
         <v>51</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C205" s="7">
         <v>11</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E205" s="7">
         <v>2.0497305719665002</v>
       </c>
       <c r="F205" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G205" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.45">
@@ -24298,25 +24297,25 @@
         <v>52</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C206" s="7">
         <v>11</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E206" s="7">
         <v>1.4252701080432177</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G206" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.45">
@@ -24324,25 +24323,25 @@
         <v>53</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C207" s="7">
         <v>11</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E207" s="7">
         <v>2.1469417300036193</v>
       </c>
       <c r="F207" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G207" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.45">
@@ -24350,25 +24349,25 @@
         <v>54</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C208" s="7">
         <v>11</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E208" s="7">
         <v>1.6966025001917326</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G208" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.45">
@@ -24376,25 +24375,25 @@
         <v>55</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C209" s="7">
         <v>11</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E209" s="7">
         <v>1.6811079545454544</v>
       </c>
       <c r="F209" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G209" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -24427,23 +24426,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -24451,7 +24450,7 @@
         <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -24459,7 +24458,7 @@
         <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
@@ -24467,7 +24466,7 @@
         <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -24475,7 +24474,7 @@
         <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -24483,7 +24482,7 @@
         <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -24491,7 +24490,7 @@
         <v>206</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
@@ -24499,7 +24498,7 @@
         <v>202</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -24507,7 +24506,7 @@
         <v>205</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
@@ -24515,7 +24514,7 @@
         <v>197</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
@@ -24523,7 +24522,7 @@
         <v>199</v>
       </c>
       <c r="B13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
@@ -24531,7 +24530,7 @@
         <v>198</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
@@ -24539,39 +24538,39 @@
         <v>200</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -24606,10 +24605,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>9</v>
@@ -24620,10 +24619,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -24634,10 +24633,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>
@@ -24648,10 +24647,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>13</v>
@@ -24662,10 +24661,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -24676,10 +24675,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
@@ -24690,10 +24689,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -24704,10 +24703,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>17</v>
@@ -24718,10 +24717,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>18</v>
@@ -24732,10 +24731,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>19</v>
@@ -24746,10 +24745,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>21</v>
@@ -24760,10 +24759,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>22</v>
@@ -24774,10 +24773,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>20</v>
@@ -24788,156 +24787,156 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -24948,10 +24947,10 @@
         <v>193</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -25124,170 +25123,170 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="D39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -25468,98 +25467,98 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -25644,90 +25643,90 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.45">
@@ -25932,90 +25931,90 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B131" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.45">
@@ -26212,7 +26211,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B166" s="7" t="s">
         <v>200</v>
@@ -26757,30 +26756,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
         <v>300</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>301</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>302</v>
-      </c>
-      <c r="E1" t="s">
-        <v>303</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B2">
         <v>0.13500000000000001</v>
@@ -26795,18 +26794,18 @@
         <v>0.5679246</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I2" s="7">
         <v>1.3847622500000001</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B3">
         <v>56.363</v>
@@ -26818,24 +26817,24 @@
         <v>34.235700000000001</v>
       </c>
       <c r="E3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" t="s">
         <v>307</v>
       </c>
-      <c r="F3" t="s">
-        <v>308</v>
-      </c>
       <c r="H3" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I3" s="7">
         <v>1.11929521</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B4">
         <v>5.0979999999999999</v>
@@ -26850,21 +26849,21 @@
         <v>6.3440000000000002E-4</v>
       </c>
       <c r="F4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="I4" s="7">
         <v>0.79883576999999995</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B5">
         <v>5.84</v>
@@ -26879,21 +26878,21 @@
         <v>9.2572999999999996E-3</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I5" s="7">
         <v>0.54915634000000002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B6">
         <v>44.451000000000001</v>
@@ -26902,55 +26901,55 @@
         <v>108</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I6" s="7">
         <v>0.40382493000000003</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="H7" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I7" s="7">
         <v>0.11398642</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
         <v>319</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>320</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>321</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>322</v>
       </c>
-      <c r="E8" t="s">
-        <v>323</v>
-      </c>
       <c r="H8" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I8" s="7">
         <v>3.7055089999999999E-2</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B9">
         <v>-0.22103999999999999</v>
@@ -26965,18 +26964,18 @@
         <v>0.99729999999999996</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
         <v>-0.10329632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10">
         <v>0.72002999999999995</v>
@@ -26991,18 +26990,18 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I10" s="7">
         <v>-0.20911753</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B11">
         <v>-0.26777000000000001</v>
@@ -27017,18 +27016,18 @@
         <v>0.99029999999999996</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" s="7">
         <v>-0.44026094999999998</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B12">
         <v>-0.48881000000000002</v>
@@ -27043,18 +27042,18 @@
         <v>0.66620000000000001</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I12" s="7">
         <v>-0.54550940000000003</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13">
         <v>0.45226</v>
@@ -27069,18 +27068,18 @@
         <v>0.77749999999999997</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I13" s="7">
         <v>-0.73963983</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B14">
         <v>-1.0226299999999999</v>
@@ -27095,21 +27094,21 @@
         <v>1.14E-2</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I14" s="7">
         <v>-0.7770589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15">
         <v>-0.75485999999999998</v>
@@ -27124,18 +27123,18 @@
         <v>0.1686</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I15" s="7">
         <v>-1.39501097</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B16">
         <v>-1.2436700000000001</v>
@@ -27147,15 +27146,15 @@
         <v>-4.609</v>
       </c>
       <c r="E16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F16" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B17">
         <v>-0.30259999999999998</v>
@@ -27172,7 +27171,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B18">
         <v>-0.79708000000000001</v>
@@ -27189,7 +27188,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B19">
         <v>-0.52930999999999995</v>
@@ -27206,7 +27205,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B20">
         <v>0.22555</v>
@@ -27223,7 +27222,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21">
         <v>-1.0181199999999999</v>
@@ -27235,15 +27234,15 @@
         <v>-3.7730000000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22">
         <v>-0.94106999999999996</v>
@@ -27258,12 +27257,12 @@
         <v>1.38E-2</v>
       </c>
       <c r="F22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B23">
         <v>-7.7049999999999993E-2</v>
@@ -27280,7 +27279,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B24">
         <v>-1.37188</v>
@@ -27292,15 +27291,15 @@
         <v>-5.2380000000000004</v>
       </c>
       <c r="E24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F24" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25">
         <v>-1.10412</v>
@@ -27312,15 +27311,15 @@
         <v>-4.2160000000000002</v>
       </c>
       <c r="E25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B26">
         <v>-0.34925</v>
@@ -27337,7 +27336,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B27">
         <v>-1.5929199999999999</v>
@@ -27349,15 +27348,15 @@
         <v>-6.202</v>
       </c>
       <c r="E27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B28">
         <v>-0.57481000000000004</v>
@@ -27374,7 +27373,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B29">
         <v>-0.65185000000000004</v>
@@ -27391,7 +27390,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B30">
         <v>-2.3014299999999999</v>
@@ -27403,15 +27402,15 @@
         <v>-8.7870000000000008</v>
       </c>
       <c r="E30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B31">
         <v>-2.0336699999999999</v>
@@ -27423,15 +27422,15 @@
         <v>-7.7649999999999997</v>
       </c>
       <c r="E31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B32">
         <v>-1.2787999999999999</v>
@@ -27443,15 +27442,15 @@
         <v>-4.6550000000000002</v>
       </c>
       <c r="E32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B33">
         <v>-2.5224700000000002</v>
@@ -27463,15 +27462,15 @@
         <v>-9.8219999999999992</v>
       </c>
       <c r="E33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B34">
         <v>-1.5043599999999999</v>
@@ -27483,15 +27482,15 @@
         <v>-5.476</v>
       </c>
       <c r="E34" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B35">
         <v>-1.5813999999999999</v>
@@ -27503,15 +27502,15 @@
         <v>-6.0380000000000003</v>
       </c>
       <c r="E35" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36">
         <v>-0.92954999999999999</v>
@@ -27526,12 +27525,12 @@
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="F36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B37">
         <v>-1.4718800000000001</v>
@@ -27543,15 +27542,15 @@
         <v>-5.7309999999999999</v>
       </c>
       <c r="E37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B38">
         <v>-1.2041200000000001</v>
@@ -27563,15 +27562,15 @@
         <v>-4.6879999999999997</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B39">
         <v>-0.44925999999999999</v>
@@ -27588,7 +27587,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B40">
         <v>-1.69292</v>
@@ -27600,15 +27599,15 @@
         <v>-6.7279999999999998</v>
       </c>
       <c r="E40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B41">
         <v>-0.67481000000000002</v>
@@ -27625,7 +27624,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B42">
         <v>-0.75185000000000002</v>
@@ -27642,7 +27641,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B43">
         <v>-0.1</v>
@@ -27659,7 +27658,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44">
         <v>0.82955000000000001</v>
@@ -27674,12 +27673,12 @@
         <v>4.9799999999999997E-2</v>
       </c>
       <c r="F44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45">
         <v>-1.6454</v>
@@ -27691,15 +27690,15 @@
         <v>-6.282</v>
       </c>
       <c r="E45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F45" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46">
         <v>-1.3776299999999999</v>
@@ -27711,15 +27710,15 @@
         <v>-5.26</v>
       </c>
       <c r="E46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47">
         <v>-0.62277000000000005</v>
@@ -27736,7 +27735,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B48">
         <v>-1.8664400000000001</v>
@@ -27748,15 +27747,15 @@
         <v>-7.2670000000000003</v>
       </c>
       <c r="E48" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B49">
         <v>-0.84831999999999996</v>
@@ -27771,12 +27770,12 @@
         <v>7.3300000000000004E-2</v>
       </c>
       <c r="F49" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B50">
         <v>-0.92537000000000003</v>
@@ -27791,12 +27790,12 @@
         <v>0.02</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B51">
         <v>-0.27351999999999999</v>
@@ -27813,7 +27812,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B52">
         <v>0.65603</v>
@@ -27830,7 +27829,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B53">
         <v>-0.17352000000000001</v>
